--- a/ComponentOptionsComparison.xlsx
+++ b/ComponentOptionsComparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egh\Source\bootstrap-razorcomponents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E918E4BD-9687-453B-AD75-9E177906EA46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DB7857-BC2E-451D-8DF5-0F998141D142}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{BDB86000-CFA2-40E7-95AA-137474E8103B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
   <si>
     <t>Boostrap syntax</t>
   </si>
@@ -78,9 +78,6 @@
     <t>No gutters</t>
   </si>
   <si>
-    <t>Vertical alignment in row</t>
-  </si>
-  <si>
     <t>&lt;div class="row align-items-start"&gt;&lt;/div&gt;</t>
   </si>
   <si>
@@ -124,6 +121,183 @@
   </si>
   <si>
     <t>Column with breakpoint</t>
+  </si>
+  <si>
+    <t>&lt;Column Span="md"&gt;&lt;/Column&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="col-md"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Column with breakpoint and width</t>
+  </si>
+  <si>
+    <t>&lt;div class="col-md-5"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Column Span="md-5"&gt;&lt;/Column&gt;</t>
+  </si>
+  <si>
+    <t>Column with auto-width</t>
+  </si>
+  <si>
+    <t>&lt;div class="col-auto"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Column Span="auto"&gt;&lt;/Column&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Column Span="lg-auto"&gt;&lt;/Column&gt;</t>
+  </si>
+  <si>
+    <t>Column with breakpoint and auto-width</t>
+  </si>
+  <si>
+    <t>&lt;div class="col-lg-auto"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="col-3 col-md-6 col-xl-auto"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Column Span="3 | md-6 | xl-auto"&gt;&lt;/Column&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="col order-4"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Column Order="4"&gt;&lt;/Column&gt;</t>
+  </si>
+  <si>
+    <t>Order first</t>
+  </si>
+  <si>
+    <t>&lt;div class="col order-first"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Order last</t>
+  </si>
+  <si>
+    <t>&lt;div class="col order-last"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Column Order="first"&gt;&lt;/Column&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Column Order="last"&gt;&lt;/Column&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="col order-sm-4"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Column Order="sm-4"&gt;&lt;/Column&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="col offset-4"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Offset by number (0-11)</t>
+  </si>
+  <si>
+    <t>Order by number (0-12)</t>
+  </si>
+  <si>
+    <t>Order with breakpoint (0-12|first|last)</t>
+  </si>
+  <si>
+    <t>Multiple order options</t>
+  </si>
+  <si>
+    <t>Multiple span options</t>
+  </si>
+  <si>
+    <t>&lt;Column Order="4 | md-2 | lg-0"&gt;&lt;/Column&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="col order-4 order-md-2 order-lg-0"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Multiple offset options</t>
+  </si>
+  <si>
+    <t>Offset with breakpoint</t>
+  </si>
+  <si>
+    <t>&lt;div class="col offset-sm-4"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="col offset-2 offset-md-4 offset-xl-8"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Column Offset="4"&gt;&lt;/Column&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Column Offset="sm-4"&gt;&lt;/Column&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Column Offset="2 | md-4 | xl-8"&gt;&lt;/Column&gt;</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>&lt;div class="row justify-content-start"&gt;</t>
+  </si>
+  <si>
+    <t>Horizontal alignment</t>
+  </si>
+  <si>
+    <t>Vertical alignment</t>
+  </si>
+  <si>
+    <t>&lt;div class="row justify-content-center"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="row justify-content-end"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Row Align="start"&gt;&lt;/Row&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Row Align="center"&gt;&lt;/Row&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Row Align="end"&gt;&lt;/Row&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="row justify-content-around"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="row justify-content-between"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Row Align="around"&gt;&lt;/Row&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Row Align="between"&gt;&lt;/Row&gt;</t>
+  </si>
+  <si>
+    <t>Multiple horizontal alignment options</t>
+  </si>
+  <si>
+    <t>&lt;div class="row justify-content-start justify-content-lg-center"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Row Align="start | lg-center"&gt;&lt;/Row&gt;</t>
+  </si>
+  <si>
+    <t>Horizontal alignment with breakpoint</t>
+  </si>
+  <si>
+    <t>&lt;div class="row justify-content-md-around"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Row Align="md-around"&gt;&lt;/Row&gt;</t>
   </si>
 </sst>
 </file>
@@ -490,22 +664,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743559AC-7752-41F7-B639-416C5106324B}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -536,7 +712,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -568,91 +746,310 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>1</v>
+      <c r="A13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/ComponentOptionsComparison.xlsx
+++ b/ComponentOptionsComparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egh\Source\bootstrap-razorcomponents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DB7857-BC2E-451D-8DF5-0F998141D142}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C103094-B4D5-4BB2-AC12-A8C784846D02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{BDB86000-CFA2-40E7-95AA-137474E8103B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="96">
   <si>
     <t>Boostrap syntax</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Default row</t>
   </si>
   <si>
-    <t>Default responsive container</t>
-  </si>
-  <si>
     <t>Fluid container</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>&lt;Component AdditionalCssClasses="some-additional-class"&gt;&lt;/Component&gt;</t>
   </si>
   <si>
-    <t>Default column</t>
-  </si>
-  <si>
     <t>&lt;Column&gt;&lt;/Column&gt;</t>
   </si>
   <si>
@@ -298,6 +292,33 @@
   </si>
   <si>
     <t>&lt;Row Align="md-around"&gt;&lt;/Row&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Row VerticalAlign="md-center"&gt;&lt;/Row&gt;</t>
+  </si>
+  <si>
+    <t>Vertical alignment with breakpoint</t>
+  </si>
+  <si>
+    <t>Multiple vertical alignment options</t>
+  </si>
+  <si>
+    <t>&lt;div class="row align-items-md-center"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="row align-items-start align-items-xl-center"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Row VerticalAlign="start | xl-center"&gt;&lt;/Row&gt;</t>
+  </si>
+  <si>
+    <t>Responsive container</t>
+  </si>
+  <si>
+    <t>Column without options</t>
+  </si>
+  <si>
+    <t>Shared</t>
   </si>
 </sst>
 </file>
@@ -664,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743559AC-7752-41F7-B639-416C5106324B}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="118" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +701,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -691,7 +712,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -702,7 +723,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -713,7 +734,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -735,7 +756,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -746,255 +767,255 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1002,54 +1023,79 @@
         <v>54</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="1" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
